--- a/excel/vgl05verf.xlsx
+++ b/excel/vgl05verf.xlsx
@@ -440,22 +440,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>33.44679600857992</v>
+        <v>17.42170396003458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.004801762803136623</v>
+        <v>0.01985673507358323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.001600461323752494</v>
+        <v>0.003173095667911218</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>29.56054938800195</v>
+        <v>-0.5942724004366724</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.007629702484838891</v>
+        <v>0.008795461358646464</v>
       </c>
     </row>
     <row r="9">
@@ -485,12 +485,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.065604004357211</v>
+        <v>0.2965000116525977</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.005027588639269292</v>
+        <v>0.0896580905509243</v>
       </c>
     </row>
     <row r="13">
@@ -505,17 +505,17 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.0002940268100433968</v>
+        <v>0.005482132251115818</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.006827665323416686</v>
+        <v>0.008305133748219498</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5571651646544035</v>
+        <v>0.4577602028200598</v>
       </c>
     </row>
     <row r="18">
@@ -525,22 +525,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.007775924390142874</v>
+        <v>0.01044564285936099</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.008832248079341914</v>
+        <v>0.003668732351667488</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.6902846012370377</v>
+        <v>0.366494947302351</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.03908240573719398</v>
+        <v>-0.01436481779346312</v>
       </c>
     </row>
     <row r="23">
@@ -550,7 +550,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.03505567368808769</v>
+        <v>0.04100991565623286</v>
       </c>
     </row>
     <row r="25">
@@ -560,32 +560,32 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>18.96321740916677</v>
+        <v>11.36650533114713</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.009119362352154433</v>
+        <v>0.02697064292803791</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.001228563449748434</v>
+        <v>0.004526901541162883</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1976084333683313</v>
+        <v>0.04846005998334019</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.177198229688764</v>
+        <v>0.144819583822186</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.544003523546637</v>
+        <v>1.360430732169479</v>
       </c>
     </row>
     <row r="32">
@@ -595,37 +595,37 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.009261517501979</v>
+        <v>2.084041462616927</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.01860905408668136</v>
+        <v>0.03916504968841898</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-449.9156390581309</v>
+        <v>-207.8791079434095</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.03642931613681075</v>
+        <v>0.01234855966226562</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.001406734457645699</v>
+        <v>0.004646311905259766</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.008426098511357829</v>
+        <v>0.004504561859151305</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.0255731988824721</v>
+        <v>0.003092352110202173</v>
       </c>
     </row>
     <row r="40">
@@ -635,47 +635,47 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.00525731787947176</v>
+        <v>0.0336822182247907</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.075874801306757</v>
+        <v>0.01034215982203011</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.134837257210947</v>
+        <v>0.05006908580342262</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.007016234327770433</v>
+        <v>0.003460231032331729</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.007244927377314598</v>
+        <v>0.004827061764968149</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.005168789477716884</v>
+        <v>0.005433689942058426</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.007075051784178019</v>
+        <v>0.0008006331719197374</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.06701081664028953</v>
+        <v>0.01810031785434865</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.001204273380777002</v>
+        <v>0.01107597348914836</v>
       </c>
     </row>
     <row r="50">
@@ -685,7 +685,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.002642126062346427</v>
+        <v>0.004199015763433577</v>
       </c>
     </row>
   </sheetData>
